--- a/SchemeIBPRME/SchemeIBPRME.xlsx
+++ b/SchemeIBPRME/SchemeIBPRME.xlsx
@@ -595,28 +595,28 @@
         <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005313604</v>
+        <v>0.001265925</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02214118</v>
+        <v>0.014960841</v>
       </c>
       <c r="J2" t="n">
-        <v>0.010179587</v>
+        <v>0.007725453</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02348997</v>
+        <v>0.015591187</v>
       </c>
       <c r="L2" t="n">
-        <v>0.025881396</v>
+        <v>0.021454954</v>
       </c>
       <c r="M2" t="n">
-        <v>0.011238709</v>
+        <v>0.005316298</v>
       </c>
       <c r="N2" t="n">
-        <v>0.021278011</v>
+        <v>0.016050943</v>
       </c>
       <c r="O2" t="n">
-        <v>0.023157422</v>
+        <v>0.019278921</v>
       </c>
       <c r="P2" t="n">
         <v>30</v>
@@ -649,10 +649,10 @@
         <v>180</v>
       </c>
       <c r="Z2" t="n">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="AA2" t="n">
-        <v>588</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3">
@@ -680,28 +680,28 @@
         <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004340855</v>
+        <v>0.000934391</v>
       </c>
       <c r="I3" t="n">
-        <v>0.018000827</v>
+        <v>0.011636941</v>
       </c>
       <c r="J3" t="n">
-        <v>0.009308889000000001</v>
+        <v>0.005623883</v>
       </c>
       <c r="K3" t="n">
-        <v>0.021444434</v>
+        <v>0.012227001</v>
       </c>
       <c r="L3" t="n">
-        <v>0.020735864</v>
+        <v>0.016863141</v>
       </c>
       <c r="M3" t="n">
-        <v>0.008701153</v>
+        <v>0.00435614</v>
       </c>
       <c r="N3" t="n">
-        <v>0.019181879</v>
+        <v>0.012338294</v>
       </c>
       <c r="O3" t="n">
-        <v>0.023190347</v>
+        <v>0.015019323</v>
       </c>
       <c r="P3" t="n">
         <v>30</v>
@@ -734,10 +734,10 @@
         <v>180</v>
       </c>
       <c r="Z3" t="n">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="AA3" t="n">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4">
@@ -765,28 +765,28 @@
         <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>0.005551648</v>
+        <v>0.000844882</v>
       </c>
       <c r="I4" t="n">
-        <v>0.022230352</v>
+        <v>0.010094715</v>
       </c>
       <c r="J4" t="n">
-        <v>0.009950913</v>
+        <v>0.005093633</v>
       </c>
       <c r="K4" t="n">
-        <v>0.021367123</v>
+        <v>0.010731361</v>
       </c>
       <c r="L4" t="n">
-        <v>0.022556945</v>
+        <v>0.014754703</v>
       </c>
       <c r="M4" t="n">
-        <v>0.009324447</v>
+        <v>0.003562858</v>
       </c>
       <c r="N4" t="n">
-        <v>0.021853225</v>
+        <v>0.011122703</v>
       </c>
       <c r="O4" t="n">
-        <v>0.027579811</v>
+        <v>0.013158876</v>
       </c>
       <c r="P4" t="n">
         <v>30</v>
@@ -819,10 +819,10 @@
         <v>180</v>
       </c>
       <c r="Z4" t="n">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AA4" t="n">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5">
@@ -850,28 +850,28 @@
         <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005177142</v>
+        <v>0.000864016</v>
       </c>
       <c r="I5" t="n">
-        <v>0.021386058</v>
+        <v>0.010210425</v>
       </c>
       <c r="J5" t="n">
-        <v>0.009936113999999999</v>
+        <v>0.005264763</v>
       </c>
       <c r="K5" t="n">
-        <v>0.023774496</v>
+        <v>0.010894942</v>
       </c>
       <c r="L5" t="n">
-        <v>0.027262809</v>
+        <v>0.014589526</v>
       </c>
       <c r="M5" t="n">
-        <v>0.011204319</v>
+        <v>0.003572537</v>
       </c>
       <c r="N5" t="n">
-        <v>0.022294154</v>
+        <v>0.011020469</v>
       </c>
       <c r="O5" t="n">
-        <v>0.026646248</v>
+        <v>0.013281215</v>
       </c>
       <c r="P5" t="n">
         <v>30</v>
@@ -904,10 +904,10 @@
         <v>180</v>
       </c>
       <c r="Z5" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AA5" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6">
@@ -935,28 +935,28 @@
         <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>0.004418942</v>
+        <v>0.000843246</v>
       </c>
       <c r="I6" t="n">
-        <v>0.019161173</v>
+        <v>0.009955501</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0089009</v>
+        <v>0.004964731</v>
       </c>
       <c r="K6" t="n">
-        <v>0.021399577</v>
+        <v>0.010515526</v>
       </c>
       <c r="L6" t="n">
-        <v>0.024637473</v>
+        <v>0.014379063</v>
       </c>
       <c r="M6" t="n">
-        <v>0.010778864</v>
+        <v>0.003635809</v>
       </c>
       <c r="N6" t="n">
-        <v>0.021717573</v>
+        <v>0.01097014</v>
       </c>
       <c r="O6" t="n">
-        <v>0.024430276</v>
+        <v>0.012934031</v>
       </c>
       <c r="P6" t="n">
         <v>30</v>
@@ -989,10 +989,10 @@
         <v>180</v>
       </c>
       <c r="Z6" t="n">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="AA6" t="n">
-        <v>588</v>
+        <v>606</v>
       </c>
     </row>
     <row r="7">
@@ -1020,28 +1020,28 @@
         <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>0.004775517</v>
+        <v>0.00083206</v>
       </c>
       <c r="I7" t="n">
-        <v>0.020044254</v>
+        <v>0.009915072</v>
       </c>
       <c r="J7" t="n">
-        <v>0.011174092</v>
+        <v>0.005001194</v>
       </c>
       <c r="K7" t="n">
-        <v>0.026699406</v>
+        <v>0.010662122</v>
       </c>
       <c r="L7" t="n">
-        <v>0.027788381</v>
+        <v>0.01455196</v>
       </c>
       <c r="M7" t="n">
-        <v>0.010695037</v>
+        <v>0.003601979</v>
       </c>
       <c r="N7" t="n">
-        <v>0.022370551</v>
+        <v>0.010845162</v>
       </c>
       <c r="O7" t="n">
-        <v>0.024475718</v>
+        <v>0.012956451</v>
       </c>
       <c r="P7" t="n">
         <v>30</v>
@@ -1074,10 +1074,10 @@
         <v>180</v>
       </c>
       <c r="Z7" t="n">
-        <v>474</v>
+        <v>508</v>
       </c>
       <c r="AA7" t="n">
-        <v>588</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>

--- a/SchemeIBPRME/SchemeIBPRME.xlsx
+++ b/SchemeIBPRME/SchemeIBPRME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,10 +561,15 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
+          <t>rk (B)</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
           <t>ct (B)</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ct' (B)</t>
         </is>
@@ -595,28 +600,28 @@
         <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001265925</v>
+        <v>0.000732798</v>
       </c>
       <c r="I2" t="n">
-        <v>0.014960841</v>
+        <v>0.008662222000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007725453</v>
+        <v>0.004308325</v>
       </c>
       <c r="K2" t="n">
-        <v>0.015591187</v>
+        <v>0.009251203</v>
       </c>
       <c r="L2" t="n">
-        <v>0.021454954</v>
+        <v>0.011011975</v>
       </c>
       <c r="M2" t="n">
-        <v>0.005316298</v>
+        <v>0.003241097</v>
       </c>
       <c r="N2" t="n">
-        <v>0.016050943</v>
+        <v>0.00982369</v>
       </c>
       <c r="O2" t="n">
-        <v>0.019278921</v>
+        <v>0.011489544</v>
       </c>
       <c r="P2" t="n">
         <v>30</v>
@@ -649,9 +654,12 @@
         <v>180</v>
       </c>
       <c r="Z2" t="n">
+        <v>384</v>
+      </c>
+      <c r="AA2" t="n">
         <v>460</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>574</v>
       </c>
     </row>
@@ -680,28 +688,28 @@
         <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000934391</v>
+        <v>0.000745294</v>
       </c>
       <c r="I3" t="n">
-        <v>0.011636941</v>
+        <v>0.008932435000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005623883</v>
+        <v>0.004423211</v>
       </c>
       <c r="K3" t="n">
-        <v>0.012227001</v>
+        <v>0.009457659</v>
       </c>
       <c r="L3" t="n">
-        <v>0.016863141</v>
+        <v>0.011090755</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00435614</v>
+        <v>0.003259283</v>
       </c>
       <c r="N3" t="n">
-        <v>0.012338294</v>
+        <v>0.009915159</v>
       </c>
       <c r="O3" t="n">
-        <v>0.015019323</v>
+        <v>0.011823633</v>
       </c>
       <c r="P3" t="n">
         <v>30</v>
@@ -734,9 +742,12 @@
         <v>180</v>
       </c>
       <c r="Z3" t="n">
+        <v>384</v>
+      </c>
+      <c r="AA3" t="n">
         <v>464</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>578</v>
       </c>
     </row>
@@ -765,28 +776,28 @@
         <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000844882</v>
+        <v>0.000738919</v>
       </c>
       <c r="I4" t="n">
-        <v>0.010094715</v>
+        <v>0.008883617999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005093633</v>
+        <v>0.004468935</v>
       </c>
       <c r="K4" t="n">
-        <v>0.010731361</v>
+        <v>0.009395786</v>
       </c>
       <c r="L4" t="n">
-        <v>0.014754703</v>
+        <v>0.011240945</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003562858</v>
+        <v>0.003391014</v>
       </c>
       <c r="N4" t="n">
-        <v>0.011122703</v>
+        <v>0.009816376999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>0.013158876</v>
+        <v>0.011594867</v>
       </c>
       <c r="P4" t="n">
         <v>30</v>
@@ -819,9 +830,12 @@
         <v>180</v>
       </c>
       <c r="Z4" t="n">
+        <v>384</v>
+      </c>
+      <c r="AA4" t="n">
         <v>472</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>586</v>
       </c>
     </row>
@@ -850,28 +864,28 @@
         <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000864016</v>
+        <v>0.000711914</v>
       </c>
       <c r="I5" t="n">
-        <v>0.010210425</v>
+        <v>0.008917885</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005264763</v>
+        <v>0.004394349</v>
       </c>
       <c r="K5" t="n">
-        <v>0.010894942</v>
+        <v>0.009307757</v>
       </c>
       <c r="L5" t="n">
-        <v>0.014589526</v>
+        <v>0.011084411</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003572537</v>
+        <v>0.003339327</v>
       </c>
       <c r="N5" t="n">
-        <v>0.011020469</v>
+        <v>0.010076472</v>
       </c>
       <c r="O5" t="n">
-        <v>0.013281215</v>
+        <v>0.011749483</v>
       </c>
       <c r="P5" t="n">
         <v>30</v>
@@ -904,9 +918,12 @@
         <v>180</v>
       </c>
       <c r="Z5" t="n">
+        <v>384</v>
+      </c>
+      <c r="AA5" t="n">
         <v>476</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>590</v>
       </c>
     </row>
@@ -935,28 +952,28 @@
         <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000843246</v>
+        <v>0.000729215</v>
       </c>
       <c r="I6" t="n">
-        <v>0.009955501</v>
+        <v>0.009232508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004964731</v>
+        <v>0.004545352</v>
       </c>
       <c r="K6" t="n">
-        <v>0.010515526</v>
+        <v>0.009545392</v>
       </c>
       <c r="L6" t="n">
-        <v>0.014379063</v>
+        <v>0.011404491</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003635809</v>
+        <v>0.003435431</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01097014</v>
+        <v>0.010229525</v>
       </c>
       <c r="O6" t="n">
-        <v>0.012934031</v>
+        <v>0.012018314</v>
       </c>
       <c r="P6" t="n">
         <v>30</v>
@@ -989,9 +1006,12 @@
         <v>180</v>
       </c>
       <c r="Z6" t="n">
+        <v>384</v>
+      </c>
+      <c r="AA6" t="n">
         <v>492</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>606</v>
       </c>
     </row>
@@ -1020,28 +1040,28 @@
         <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00083206</v>
+        <v>0.000789943</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009915072</v>
+        <v>0.009128344</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005001194</v>
+        <v>0.004517315</v>
       </c>
       <c r="K7" t="n">
-        <v>0.010662122</v>
+        <v>0.009663211</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01455196</v>
+        <v>0.011542458</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003601979</v>
+        <v>0.003374323</v>
       </c>
       <c r="N7" t="n">
-        <v>0.010845162</v>
+        <v>0.010117884</v>
       </c>
       <c r="O7" t="n">
-        <v>0.012956451</v>
+        <v>0.012249155</v>
       </c>
       <c r="P7" t="n">
         <v>30</v>
@@ -1074,9 +1094,12 @@
         <v>180</v>
       </c>
       <c r="Z7" t="n">
+        <v>384</v>
+      </c>
+      <c r="AA7" t="n">
         <v>508</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
         <v>622</v>
       </c>
     </row>

--- a/SchemeIBPRME/SchemeIBPRME.xlsx
+++ b/SchemeIBPRME/SchemeIBPRME.xlsx
@@ -600,28 +600,28 @@
         <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000732798</v>
+        <v>0.000230763</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008662222000000001</v>
+        <v>0.002775275</v>
       </c>
       <c r="J2" t="n">
-        <v>0.004308325</v>
+        <v>0.001388476</v>
       </c>
       <c r="K2" t="n">
-        <v>0.009251203</v>
+        <v>0.002960048</v>
       </c>
       <c r="L2" t="n">
-        <v>0.011011975</v>
+        <v>0.003478729</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003241097</v>
+        <v>0.001030001</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00982369</v>
+        <v>0.00307541</v>
       </c>
       <c r="O2" t="n">
-        <v>0.011489544</v>
+        <v>0.003658001</v>
       </c>
       <c r="P2" t="n">
         <v>30</v>
@@ -688,28 +688,28 @@
         <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000745294</v>
+        <v>0.000225542</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008932435000000001</v>
+        <v>0.002769918</v>
       </c>
       <c r="J3" t="n">
-        <v>0.004423211</v>
+        <v>0.001395446</v>
       </c>
       <c r="K3" t="n">
-        <v>0.009457659</v>
+        <v>0.002984819</v>
       </c>
       <c r="L3" t="n">
-        <v>0.011090755</v>
+        <v>0.003485519</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003259283</v>
+        <v>0.001035527</v>
       </c>
       <c r="N3" t="n">
-        <v>0.009915159</v>
+        <v>0.003101532</v>
       </c>
       <c r="O3" t="n">
-        <v>0.011823633</v>
+        <v>0.003654631</v>
       </c>
       <c r="P3" t="n">
         <v>30</v>
@@ -776,28 +776,28 @@
         <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000738919</v>
+        <v>0.000234927</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008883617999999999</v>
+        <v>0.002788913</v>
       </c>
       <c r="J4" t="n">
-        <v>0.004468935</v>
+        <v>0.001396123</v>
       </c>
       <c r="K4" t="n">
-        <v>0.009395786</v>
+        <v>0.003007995</v>
       </c>
       <c r="L4" t="n">
-        <v>0.011240945</v>
+        <v>0.00352677</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003391014</v>
+        <v>0.001068311</v>
       </c>
       <c r="N4" t="n">
-        <v>0.009816376999999999</v>
+        <v>0.003134647</v>
       </c>
       <c r="O4" t="n">
-        <v>0.011594867</v>
+        <v>0.003679988</v>
       </c>
       <c r="P4" t="n">
         <v>30</v>
@@ -864,28 +864,28 @@
         <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000711914</v>
+        <v>0.000228091</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008917885</v>
+        <v>0.002818685</v>
       </c>
       <c r="J5" t="n">
-        <v>0.004394349</v>
+        <v>0.001409531</v>
       </c>
       <c r="K5" t="n">
-        <v>0.009307757</v>
+        <v>0.003014488</v>
       </c>
       <c r="L5" t="n">
-        <v>0.011084411</v>
+        <v>0.003531999</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003339327</v>
+        <v>0.001057045</v>
       </c>
       <c r="N5" t="n">
-        <v>0.010076472</v>
+        <v>0.003146547</v>
       </c>
       <c r="O5" t="n">
-        <v>0.011749483</v>
+        <v>0.003730092</v>
       </c>
       <c r="P5" t="n">
         <v>30</v>
@@ -952,28 +952,28 @@
         <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000729215</v>
+        <v>0.000243941</v>
       </c>
       <c r="I6" t="n">
-        <v>0.009232508</v>
+        <v>0.002902071</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004545352</v>
+        <v>0.00144238</v>
       </c>
       <c r="K6" t="n">
-        <v>0.009545392</v>
+        <v>0.003079337</v>
       </c>
       <c r="L6" t="n">
-        <v>0.011404491</v>
+        <v>0.003613565</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003435431</v>
+        <v>0.001075791</v>
       </c>
       <c r="N6" t="n">
-        <v>0.010229525</v>
+        <v>0.003209577</v>
       </c>
       <c r="O6" t="n">
-        <v>0.012018314</v>
+        <v>0.003803467</v>
       </c>
       <c r="P6" t="n">
         <v>30</v>
@@ -1040,28 +1040,28 @@
         <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000789943</v>
+        <v>0.000229819</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009128344</v>
+        <v>0.00288916</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004517315</v>
+        <v>0.001433581</v>
       </c>
       <c r="K7" t="n">
-        <v>0.009663211</v>
+        <v>0.003038321</v>
       </c>
       <c r="L7" t="n">
-        <v>0.011542458</v>
+        <v>0.003539016</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003374323</v>
+        <v>0.0010534</v>
       </c>
       <c r="N7" t="n">
-        <v>0.010117884</v>
+        <v>0.003106153</v>
       </c>
       <c r="O7" t="n">
-        <v>0.012249155</v>
+        <v>0.003695891</v>
       </c>
       <c r="P7" t="n">
         <v>30</v>

--- a/SchemeIBPRME/SchemeIBPRME.xlsx
+++ b/SchemeIBPRME/SchemeIBPRME.xlsx
@@ -600,28 +600,28 @@
         <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000230763</v>
+        <v>0.000675367</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002775275</v>
+        <v>0.008267412999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001388476</v>
+        <v>0.004210469</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002960048</v>
+        <v>0.008908948</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003478729</v>
+        <v>0.0103771</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001030001</v>
+        <v>0.003087873</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00307541</v>
+        <v>0.009318572000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003658001</v>
+        <v>0.01097416</v>
       </c>
       <c r="P2" t="n">
         <v>30</v>
@@ -688,28 +688,28 @@
         <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000225542</v>
+        <v>0.000685458</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002769918</v>
+        <v>0.008461264</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001395446</v>
+        <v>0.004209982</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002984819</v>
+        <v>0.008941951</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003485519</v>
+        <v>0.01047499</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001035527</v>
+        <v>0.003148299</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003101532</v>
+        <v>0.009355986</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003654631</v>
+        <v>0.011023845</v>
       </c>
       <c r="P3" t="n">
         <v>30</v>
@@ -776,28 +776,28 @@
         <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000234927</v>
+        <v>0.000665068</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002788913</v>
+        <v>0.008350000999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001396123</v>
+        <v>0.004129996</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003007995</v>
+        <v>0.009058059</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00352677</v>
+        <v>0.010408051</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001068311</v>
+        <v>0.00305897</v>
       </c>
       <c r="N4" t="n">
-        <v>0.003134647</v>
+        <v>0.009252466000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>0.003679988</v>
+        <v>0.010966202</v>
       </c>
       <c r="P4" t="n">
         <v>30</v>
@@ -864,28 +864,28 @@
         <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000228091</v>
+        <v>0.0006791600000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002818685</v>
+        <v>0.008283342000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001409531</v>
+        <v>0.00410761</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003014488</v>
+        <v>0.008862055000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003531999</v>
+        <v>0.010466495</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001057045</v>
+        <v>0.003090413</v>
       </c>
       <c r="N5" t="n">
-        <v>0.003146547</v>
+        <v>0.009281136000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>0.003730092</v>
+        <v>0.010929653</v>
       </c>
       <c r="P5" t="n">
         <v>30</v>
@@ -952,28 +952,28 @@
         <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000243941</v>
+        <v>0.000675415</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002902071</v>
+        <v>0.008293447000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00144238</v>
+        <v>0.004160669</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003079337</v>
+        <v>0.008888251</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003613565</v>
+        <v>0.010572465</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001075791</v>
+        <v>0.003232421</v>
       </c>
       <c r="N6" t="n">
-        <v>0.003209577</v>
+        <v>0.009288326</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003803467</v>
+        <v>0.010946567</v>
       </c>
       <c r="P6" t="n">
         <v>30</v>
@@ -1040,28 +1040,28 @@
         <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000229819</v>
+        <v>0.000741843</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00288916</v>
+        <v>0.008802236999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001433581</v>
+        <v>0.004222274</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003038321</v>
+        <v>0.009029255</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003539016</v>
+        <v>0.010790947</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0010534</v>
+        <v>0.003293877</v>
       </c>
       <c r="N7" t="n">
-        <v>0.003106153</v>
+        <v>0.009557266999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003695891</v>
+        <v>0.01125</v>
       </c>
       <c r="P7" t="n">
         <v>30</v>

--- a/SchemeIBPRME/SchemeIBPRME.xlsx
+++ b/SchemeIBPRME/SchemeIBPRME.xlsx
@@ -600,28 +600,28 @@
         <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000675367</v>
+        <v>0.000695159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008267412999999999</v>
+        <v>0.008151683999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0.004210469</v>
+        <v>0.004088236</v>
       </c>
       <c r="K2" t="n">
-        <v>0.008908948</v>
+        <v>0.008705424999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0103771</v>
+        <v>0.010245514</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003087873</v>
+        <v>0.003040365</v>
       </c>
       <c r="N2" t="n">
-        <v>0.009318572000000001</v>
+        <v>0.009035913</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01097416</v>
+        <v>0.010736113</v>
       </c>
       <c r="P2" t="n">
         <v>30</v>
@@ -688,28 +688,28 @@
         <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000685458</v>
+        <v>0.000671783</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008461264</v>
+        <v>0.008107892</v>
       </c>
       <c r="J3" t="n">
-        <v>0.004209982</v>
+        <v>0.00402879</v>
       </c>
       <c r="K3" t="n">
-        <v>0.008941951</v>
+        <v>0.008732167000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01047499</v>
+        <v>0.010171111</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003148299</v>
+        <v>0.003040568</v>
       </c>
       <c r="N3" t="n">
-        <v>0.009355986</v>
+        <v>0.009061537999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>0.011023845</v>
+        <v>0.010884</v>
       </c>
       <c r="P3" t="n">
         <v>30</v>
@@ -776,28 +776,28 @@
         <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000665068</v>
+        <v>0.000660866</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008350000999999999</v>
+        <v>0.008125695</v>
       </c>
       <c r="J4" t="n">
-        <v>0.004129996</v>
+        <v>0.004056726</v>
       </c>
       <c r="K4" t="n">
-        <v>0.009058059</v>
+        <v>0.008721352999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>0.010408051</v>
+        <v>0.010184788</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00305897</v>
+        <v>0.003012469</v>
       </c>
       <c r="N4" t="n">
-        <v>0.009252466000000001</v>
+        <v>0.009133815999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>0.010966202</v>
+        <v>0.01082087</v>
       </c>
       <c r="P4" t="n">
         <v>30</v>
@@ -864,28 +864,28 @@
         <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0006791600000000001</v>
+        <v>0.000677334</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008283342000000001</v>
+        <v>0.008301028</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00410761</v>
+        <v>0.004092428</v>
       </c>
       <c r="K5" t="n">
-        <v>0.008862055000000001</v>
+        <v>0.008919923</v>
       </c>
       <c r="L5" t="n">
-        <v>0.010466495</v>
+        <v>0.010307783</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003090413</v>
+        <v>0.003082041</v>
       </c>
       <c r="N5" t="n">
-        <v>0.009281136000000001</v>
+        <v>0.009141280999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>0.010929653</v>
+        <v>0.010798648</v>
       </c>
       <c r="P5" t="n">
         <v>30</v>
@@ -952,28 +952,28 @@
         <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000675415</v>
+        <v>0.000666832</v>
       </c>
       <c r="I6" t="n">
-        <v>0.008293447000000001</v>
+        <v>0.008188253</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004160669</v>
+        <v>0.004117302</v>
       </c>
       <c r="K6" t="n">
-        <v>0.008888251</v>
+        <v>0.008755934999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>0.010572465</v>
+        <v>0.010464091</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003232421</v>
+        <v>0.003066819</v>
       </c>
       <c r="N6" t="n">
-        <v>0.009288326</v>
+        <v>0.009309469000000001</v>
       </c>
       <c r="O6" t="n">
-        <v>0.010946567</v>
+        <v>0.010792447</v>
       </c>
       <c r="P6" t="n">
         <v>30</v>
@@ -1040,28 +1040,28 @@
         <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000741843</v>
+        <v>0.000681388</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008802236999999999</v>
+        <v>0.008266374999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004222274</v>
+        <v>0.004049575</v>
       </c>
       <c r="K7" t="n">
-        <v>0.009029255</v>
+        <v>0.008742957000000001</v>
       </c>
       <c r="L7" t="n">
-        <v>0.010790947</v>
+        <v>0.010241017</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003293877</v>
+        <v>0.003077504</v>
       </c>
       <c r="N7" t="n">
-        <v>0.009557266999999999</v>
+        <v>0.009082827999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01125</v>
+        <v>0.010727955</v>
       </c>
       <c r="P7" t="n">
         <v>30</v>

--- a/SchemeIBPRME/SchemeIBPRME.xlsx
+++ b/SchemeIBPRME/SchemeIBPRME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,60 +516,55 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>elementOfG1 (B)</t>
+          <t>elementOfG1G2 (B)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>elementOfG2 (B)</t>
+          <t>elementOfGT (B)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>elementOfGT (B)</t>
+          <t>mpk (B)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>mpk (B)</t>
+          <t>msk (B)</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>msk (B)</t>
+          <t>ek_id_1 (B)</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>ek_id_1 (B)</t>
+          <t>ek_id_2 (B)</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>ek_id_2 (B)</t>
+          <t>dk_id_2 (B)</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>dk_id_2 (B)</t>
+          <t>dk_id_3 (B)</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>dk_id_3 (B)</t>
+          <t>rk (B)</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>rk (B)</t>
+          <t>ct (B)</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>ct (B)</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ct' (B)</t>
         </is>
@@ -585,43 +580,43 @@
         <v>128</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000695159</v>
+        <v>0.000688227</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008151683999999999</v>
+        <v>0.004163378</v>
       </c>
       <c r="J2" t="n">
-        <v>0.004088236</v>
+        <v>0.002095309</v>
       </c>
       <c r="K2" t="n">
-        <v>0.008705424999999999</v>
+        <v>0.008899312</v>
       </c>
       <c r="L2" t="n">
-        <v>0.010245514</v>
+        <v>0.010470673</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003040365</v>
+        <v>0.003107548</v>
       </c>
       <c r="N2" t="n">
-        <v>0.009035913</v>
+        <v>0.009251105000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>0.010736113</v>
+        <v>0.010949088</v>
       </c>
       <c r="P2" t="n">
         <v>30</v>
@@ -630,36 +625,33 @@
         <v>90</v>
       </c>
       <c r="R2" t="n">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="S2" t="n">
-        <v>174</v>
+        <v>382</v>
       </c>
       <c r="T2" t="n">
-        <v>382</v>
+        <v>60</v>
       </c>
       <c r="U2" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="V2" t="n">
         <v>90</v>
       </c>
       <c r="W2" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="X2" t="n">
         <v>180</v>
       </c>
       <c r="Y2" t="n">
-        <v>180</v>
+        <v>384</v>
       </c>
       <c r="Z2" t="n">
-        <v>384</v>
+        <v>460</v>
       </c>
       <c r="AA2" t="n">
-        <v>460</v>
-      </c>
-      <c r="AB2" t="n">
         <v>574</v>
       </c>
     </row>
@@ -673,43 +665,43 @@
         <v>160</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000671783</v>
+        <v>0.00070173</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008107892</v>
+        <v>0.004230216</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00402879</v>
+        <v>0.002108078</v>
       </c>
       <c r="K3" t="n">
-        <v>0.008732167000000001</v>
+        <v>0.009057429000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>0.010171111</v>
+        <v>0.010624657</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003040568</v>
+        <v>0.003152715</v>
       </c>
       <c r="N3" t="n">
-        <v>0.009061537999999999</v>
+        <v>0.009503291000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>0.010884</v>
+        <v>0.011147262</v>
       </c>
       <c r="P3" t="n">
         <v>30</v>
@@ -718,36 +710,33 @@
         <v>90</v>
       </c>
       <c r="R3" t="n">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="S3" t="n">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="T3" t="n">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="U3" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="V3" t="n">
         <v>90</v>
       </c>
       <c r="W3" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="X3" t="n">
         <v>180</v>
       </c>
       <c r="Y3" t="n">
-        <v>180</v>
+        <v>384</v>
       </c>
       <c r="Z3" t="n">
-        <v>384</v>
+        <v>464</v>
       </c>
       <c r="AA3" t="n">
-        <v>464</v>
-      </c>
-      <c r="AB3" t="n">
         <v>578</v>
       </c>
     </row>
@@ -761,43 +750,43 @@
         <v>224</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000660866</v>
+        <v>0.00069546</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008125695</v>
+        <v>0.004243969</v>
       </c>
       <c r="J4" t="n">
-        <v>0.004056726</v>
+        <v>0.002145238</v>
       </c>
       <c r="K4" t="n">
-        <v>0.008721352999999999</v>
+        <v>0.009138606000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>0.010184788</v>
+        <v>0.010694096</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003012469</v>
+        <v>0.003191279</v>
       </c>
       <c r="N4" t="n">
-        <v>0.009133815999999999</v>
+        <v>0.009519186000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01082087</v>
+        <v>0.011221404</v>
       </c>
       <c r="P4" t="n">
         <v>30</v>
@@ -806,36 +795,33 @@
         <v>90</v>
       </c>
       <c r="R4" t="n">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="S4" t="n">
-        <v>174</v>
+        <v>466</v>
       </c>
       <c r="T4" t="n">
-        <v>466</v>
+        <v>60</v>
       </c>
       <c r="U4" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="V4" t="n">
         <v>90</v>
       </c>
       <c r="W4" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="X4" t="n">
         <v>180</v>
       </c>
       <c r="Y4" t="n">
-        <v>180</v>
+        <v>384</v>
       </c>
       <c r="Z4" t="n">
-        <v>384</v>
+        <v>472</v>
       </c>
       <c r="AA4" t="n">
-        <v>472</v>
-      </c>
-      <c r="AB4" t="n">
         <v>586</v>
       </c>
     </row>
@@ -849,43 +835,43 @@
         <v>256</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000677334</v>
+        <v>0.000675039</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008301028</v>
+        <v>0.004138181</v>
       </c>
       <c r="J5" t="n">
-        <v>0.004092428</v>
+        <v>0.002057035</v>
       </c>
       <c r="K5" t="n">
-        <v>0.008919923</v>
+        <v>0.008871283000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>0.010307783</v>
+        <v>0.010340372</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003082041</v>
+        <v>0.003078238</v>
       </c>
       <c r="N5" t="n">
-        <v>0.009141280999999999</v>
+        <v>0.009236629</v>
       </c>
       <c r="O5" t="n">
-        <v>0.010798648</v>
+        <v>0.010821628</v>
       </c>
       <c r="P5" t="n">
         <v>30</v>
@@ -894,36 +880,33 @@
         <v>90</v>
       </c>
       <c r="R5" t="n">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="S5" t="n">
-        <v>174</v>
+        <v>494</v>
       </c>
       <c r="T5" t="n">
-        <v>494</v>
+        <v>60</v>
       </c>
       <c r="U5" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="V5" t="n">
         <v>90</v>
       </c>
       <c r="W5" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="X5" t="n">
         <v>180</v>
       </c>
       <c r="Y5" t="n">
-        <v>180</v>
+        <v>384</v>
       </c>
       <c r="Z5" t="n">
-        <v>384</v>
+        <v>476</v>
       </c>
       <c r="AA5" t="n">
-        <v>476</v>
-      </c>
-      <c r="AB5" t="n">
         <v>590</v>
       </c>
     </row>
@@ -937,43 +920,43 @@
         <v>384</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000666832</v>
+        <v>0.000685741</v>
       </c>
       <c r="I6" t="n">
-        <v>0.008188253</v>
+        <v>0.004146412</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004117302</v>
+        <v>0.002061625</v>
       </c>
       <c r="K6" t="n">
-        <v>0.008755934999999999</v>
+        <v>0.008846325</v>
       </c>
       <c r="L6" t="n">
-        <v>0.010464091</v>
+        <v>0.010413294</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003066819</v>
+        <v>0.003081586</v>
       </c>
       <c r="N6" t="n">
-        <v>0.009309469000000001</v>
+        <v>0.00921757</v>
       </c>
       <c r="O6" t="n">
-        <v>0.010792447</v>
+        <v>0.010843313</v>
       </c>
       <c r="P6" t="n">
         <v>30</v>
@@ -982,36 +965,33 @@
         <v>90</v>
       </c>
       <c r="R6" t="n">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="S6" t="n">
-        <v>174</v>
+        <v>606</v>
       </c>
       <c r="T6" t="n">
-        <v>606</v>
+        <v>60</v>
       </c>
       <c r="U6" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="V6" t="n">
         <v>90</v>
       </c>
       <c r="W6" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="X6" t="n">
         <v>180</v>
       </c>
       <c r="Y6" t="n">
-        <v>180</v>
+        <v>384</v>
       </c>
       <c r="Z6" t="n">
-        <v>384</v>
+        <v>492</v>
       </c>
       <c r="AA6" t="n">
-        <v>492</v>
-      </c>
-      <c r="AB6" t="n">
         <v>606</v>
       </c>
     </row>
@@ -1025,43 +1005,43 @@
         <v>512</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000681388</v>
+        <v>0.000687945</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008266374999999999</v>
+        <v>0.004210109</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004049575</v>
+        <v>0.002124707</v>
       </c>
       <c r="K7" t="n">
-        <v>0.008742957000000001</v>
+        <v>0.009052573</v>
       </c>
       <c r="L7" t="n">
-        <v>0.010241017</v>
+        <v>0.010556911</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003077504</v>
+        <v>0.003122161</v>
       </c>
       <c r="N7" t="n">
-        <v>0.009082827999999999</v>
+        <v>0.00931716</v>
       </c>
       <c r="O7" t="n">
-        <v>0.010727955</v>
+        <v>0.011044235</v>
       </c>
       <c r="P7" t="n">
         <v>30</v>
@@ -1070,36 +1050,33 @@
         <v>90</v>
       </c>
       <c r="R7" t="n">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="S7" t="n">
-        <v>174</v>
+        <v>718</v>
       </c>
       <c r="T7" t="n">
-        <v>718</v>
+        <v>60</v>
       </c>
       <c r="U7" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="V7" t="n">
         <v>90</v>
       </c>
       <c r="W7" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="X7" t="n">
         <v>180</v>
       </c>
       <c r="Y7" t="n">
-        <v>180</v>
+        <v>384</v>
       </c>
       <c r="Z7" t="n">
-        <v>384</v>
+        <v>508</v>
       </c>
       <c r="AA7" t="n">
-        <v>508</v>
-      </c>
-      <c r="AB7" t="n">
         <v>622</v>
       </c>
     </row>
